--- a/project/翟晓龙/1109/测试用例.xlsx
+++ b/project/翟晓龙/1109/测试用例.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="61">
   <si>
     <t>模块名称</t>
   </si>
@@ -94,7 +94,109 @@
     <t>选择一个文档，点击预览</t>
   </si>
   <si>
+    <t>选中左边个人文档类型的文件，点击左下角删除，点击确定</t>
+  </si>
+  <si>
+    <t>选中左边个人文档类型的文件，点击左下角删除，点击取消</t>
+  </si>
+  <si>
+    <t>点击左下角新增，正确输入文字，点击确定</t>
+  </si>
+  <si>
+    <t>选中左边个人文档类型的文件，点击左下角修改，正确输入，点击确定</t>
+  </si>
+  <si>
+    <t>点击左下角刷新</t>
+  </si>
+  <si>
+    <t>选中左边个人文档类型的文件，点击左下角十字键头，点击另一个非上级文件，点击确定</t>
+  </si>
+  <si>
+    <t>选中左边个人文档类型的文件，点击左下角十字键头，点击另一个非上级文件，点击取消</t>
+  </si>
+  <si>
+    <t>选中左边个人文档类型的文件，点击左下角共享/取消共享按钮，选择一个团队，点击确定</t>
+  </si>
+  <si>
+    <t>选中左边个人文档类型的被共享的文件，点击左下角共享/取消共享按钮，点击确定</t>
+  </si>
+  <si>
+    <t>选中左边个人文档类型的文件，点击左下角共享/取消共享按钮，选择全部团队，点击确定</t>
+  </si>
+  <si>
     <t>部门文档</t>
+  </si>
+  <si>
+    <t>共享的文档</t>
+  </si>
+  <si>
+    <t>点击所有共享</t>
+  </si>
+  <si>
+    <t>点击我共享的</t>
+  </si>
+  <si>
+    <t>搜索框输入“系统logo”（被共享文件的名称），点击搜索</t>
+  </si>
+  <si>
+    <t>搜索框随意输入“系统logo”（非共享文件的名称），点击搜索</t>
+  </si>
+  <si>
+    <t>选中文件，点击导出，点击下载</t>
+  </si>
+  <si>
+    <t>选中文件，点击预览</t>
+  </si>
+  <si>
+    <t>选中文件，点击下载</t>
+  </si>
+  <si>
+    <t>点击翻页栏刷新按钮</t>
+  </si>
+  <si>
+    <t>点击翻页栏下一页</t>
+  </si>
+  <si>
+    <t>点击翻页栏上一页</t>
+  </si>
+  <si>
+    <t>点击翻页栏最后一页</t>
+  </si>
+  <si>
+    <t>点击翻页栏最前一页</t>
+  </si>
+  <si>
+    <t>知识信息管理</t>
+  </si>
+  <si>
+    <t>点击新增，正确输入，不添加文件，点击保存</t>
+  </si>
+  <si>
+    <t>点击新增，正确输入，添加文件，点击保存</t>
+  </si>
+  <si>
+    <t>再搜索框输入标题/分类，点击搜索</t>
+  </si>
+  <si>
+    <t>点击所有知识</t>
+  </si>
+  <si>
+    <t>选中一个文件，点击查看</t>
+  </si>
+  <si>
+    <t>选中一个文件，点击删除</t>
+  </si>
+  <si>
+    <t>选中左边个人文档类型的文件，点击左下角移到顶级，点击确定</t>
+  </si>
+  <si>
+    <t>选中左边个人文档类型的文件，点击左下角移到顶级，点击取消</t>
+  </si>
+  <si>
+    <t>点击左下角所有知识分类</t>
+  </si>
+  <si>
+    <t>选中一个文件，双击排序进行修改</t>
   </si>
 </sst>
 </file>
@@ -102,9 +204,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -130,68 +232,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -214,15 +256,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -244,11 +292,41 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -260,8 +338,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -276,187 +378,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -467,35 +569,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -519,21 +592,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -567,6 +625,50 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -575,10 +677,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -587,133 +689,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1043,10 +1145,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C76"/>
+  <dimension ref="A1:C117"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23:C33"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="C83" sqref="C83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="2"/>
@@ -1242,311 +1344,675 @@
     </row>
     <row r="23" ht="15.6" spans="1:3">
       <c r="A23" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B23">
         <v>22</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="24" spans="2:3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="24" ht="15.6" spans="2:3">
       <c r="B24">
         <v>23</v>
       </c>
-      <c r="C24" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="25" spans="2:3">
+      <c r="C24" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="25" ht="15.6" spans="2:3">
       <c r="B25">
         <v>24</v>
       </c>
-      <c r="C25" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="26" spans="2:3">
+      <c r="C25" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="26" ht="15.6" spans="2:3">
       <c r="B26">
         <v>25</v>
       </c>
-      <c r="C26" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="27" spans="2:3">
+      <c r="C26" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="27" ht="15.6" spans="2:3">
       <c r="B27">
         <v>26</v>
       </c>
-      <c r="C27" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
+      <c r="C27" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" ht="15.6" spans="1:3">
       <c r="A28" t="s">
         <v>22</v>
       </c>
       <c r="B28">
         <v>27</v>
       </c>
-      <c r="C28" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="29" spans="2:3">
+      <c r="C28" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="29" ht="15.6" spans="2:3">
       <c r="B29">
         <v>28</v>
       </c>
-      <c r="C29" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="30" spans="2:3">
+      <c r="C29" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="30" ht="15.6" spans="2:3">
       <c r="B30">
         <v>29</v>
       </c>
-      <c r="C30" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="31" spans="2:3">
+      <c r="C30" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="31" ht="15.6" spans="2:3">
       <c r="B31">
         <v>30</v>
       </c>
-      <c r="C31" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="32" spans="2:3">
+      <c r="C31" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="32" ht="15.6" spans="2:3">
       <c r="B32">
         <v>31</v>
       </c>
-      <c r="C32" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="33" spans="2:3">
+      <c r="C32" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="33" ht="15.6" spans="1:3">
+      <c r="A33" t="s">
+        <v>36</v>
+      </c>
       <c r="B33">
         <v>32</v>
       </c>
-      <c r="C33" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="34" spans="2:2">
+      <c r="C33" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3">
       <c r="B34">
         <v>33</v>
       </c>
-    </row>
-    <row r="35" spans="2:2">
+      <c r="C34" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3">
       <c r="B35">
         <v>34</v>
       </c>
-    </row>
-    <row r="36" spans="2:2">
+      <c r="C35" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36" spans="2:3">
       <c r="B36">
         <v>35</v>
       </c>
-    </row>
-    <row r="37" spans="2:2">
+      <c r="C36" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37" spans="2:3">
       <c r="B37">
         <v>36</v>
       </c>
-    </row>
-    <row r="38" spans="2:2">
+      <c r="C37" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38" spans="2:3">
       <c r="B38">
         <v>37</v>
       </c>
-    </row>
-    <row r="39" spans="2:2">
+      <c r="C38" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39" spans="2:3">
       <c r="B39">
         <v>38</v>
       </c>
-    </row>
-    <row r="40" spans="2:2">
+      <c r="C39" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40" spans="2:3">
       <c r="B40">
         <v>39</v>
       </c>
-    </row>
-    <row r="41" spans="2:2">
+      <c r="C40" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="41" spans="2:3">
       <c r="B41">
         <v>40</v>
       </c>
-    </row>
-    <row r="42" spans="2:2">
+      <c r="C41" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="42" spans="2:3">
       <c r="B42">
         <v>41</v>
       </c>
-    </row>
-    <row r="43" spans="2:2">
+      <c r="C42" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="43" spans="2:3">
       <c r="B43">
         <v>42</v>
       </c>
-    </row>
-    <row r="44" spans="2:2">
+      <c r="C43" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="44" spans="2:3">
       <c r="B44">
         <v>43</v>
       </c>
-    </row>
-    <row r="45" spans="2:2">
+      <c r="C44" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="45" ht="15.6" spans="2:3">
       <c r="B45">
         <v>44</v>
       </c>
-    </row>
-    <row r="46" spans="2:2">
+      <c r="C45" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="46" ht="15.6" spans="2:3">
       <c r="B46">
         <v>45</v>
       </c>
-    </row>
-    <row r="47" spans="2:2">
+      <c r="C46" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="47" ht="15.6" spans="2:3">
       <c r="B47">
         <v>46</v>
       </c>
-    </row>
-    <row r="48" spans="2:2">
+      <c r="C47" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="48" ht="15.6" spans="2:3">
       <c r="B48">
         <v>47</v>
       </c>
-    </row>
-    <row r="49" spans="2:2">
+      <c r="C48" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="49" ht="15.6" spans="2:3">
       <c r="B49">
         <v>48</v>
       </c>
-    </row>
-    <row r="50" spans="2:2">
+      <c r="C49" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="50" ht="15.6" spans="2:3">
       <c r="B50">
         <v>49</v>
       </c>
-    </row>
-    <row r="51" spans="2:2">
+      <c r="C50" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="51" ht="15.6" spans="2:3">
       <c r="B51">
         <v>50</v>
       </c>
-    </row>
-    <row r="52" spans="2:2">
+      <c r="C51" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="52" ht="15.6" spans="2:3">
       <c r="B52">
         <v>51</v>
       </c>
-    </row>
-    <row r="53" spans="2:2">
+      <c r="C52" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="53" ht="15.6" spans="2:3">
       <c r="B53">
         <v>52</v>
       </c>
-    </row>
-    <row r="54" spans="2:2">
+      <c r="C53" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="54" ht="15.6" spans="2:3">
       <c r="B54">
         <v>53</v>
       </c>
-    </row>
-    <row r="55" spans="2:2">
+      <c r="C54" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" t="s">
+        <v>37</v>
+      </c>
       <c r="B55">
         <v>54</v>
       </c>
-    </row>
-    <row r="56" spans="2:2">
+      <c r="C55" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="56" spans="2:3">
       <c r="B56">
         <v>55</v>
       </c>
-    </row>
-    <row r="57" spans="2:2">
+      <c r="C56" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="57" spans="2:3">
       <c r="B57">
         <v>56</v>
       </c>
-    </row>
-    <row r="58" spans="2:2">
+      <c r="C57" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="58" spans="2:3">
       <c r="B58">
         <v>57</v>
       </c>
-    </row>
-    <row r="59" spans="2:2">
+      <c r="C58" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="59" spans="2:3">
       <c r="B59">
         <v>58</v>
       </c>
-    </row>
-    <row r="60" spans="2:2">
+      <c r="C59" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="60" spans="2:3">
       <c r="B60">
         <v>59</v>
       </c>
-    </row>
-    <row r="61" spans="2:2">
+      <c r="C60" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="61" spans="2:3">
       <c r="B61">
         <v>60</v>
       </c>
-    </row>
-    <row r="62" spans="2:2">
+      <c r="C61" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="62" spans="2:3">
       <c r="B62">
         <v>61</v>
       </c>
-    </row>
-    <row r="63" spans="2:2">
+      <c r="C62" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="63" spans="2:3">
       <c r="B63">
         <v>62</v>
       </c>
-    </row>
-    <row r="64" spans="2:2">
+      <c r="C63" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="64" spans="2:3">
       <c r="B64">
         <v>63</v>
       </c>
-    </row>
-    <row r="65" spans="2:2">
+      <c r="C64" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="65" spans="2:3">
       <c r="B65">
         <v>64</v>
       </c>
-    </row>
-    <row r="66" spans="2:2">
+      <c r="C65" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="66" spans="2:3">
       <c r="B66">
         <v>65</v>
       </c>
-    </row>
-    <row r="67" spans="2:2">
+      <c r="C66" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67" t="s">
+        <v>50</v>
+      </c>
       <c r="B67">
         <v>66</v>
       </c>
-    </row>
-    <row r="68" spans="2:2">
+      <c r="C67" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="68" spans="2:3">
       <c r="B68">
         <v>67</v>
       </c>
-    </row>
-    <row r="69" spans="2:2">
+      <c r="C68" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="69" spans="2:3">
       <c r="B69">
         <v>68</v>
       </c>
-    </row>
-    <row r="70" spans="2:2">
+      <c r="C69" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="70" spans="2:3">
       <c r="B70">
         <v>69</v>
       </c>
-    </row>
-    <row r="71" spans="2:2">
+      <c r="C70" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="71" spans="2:3">
       <c r="B71">
         <v>70</v>
       </c>
-    </row>
-    <row r="72" spans="2:2">
+      <c r="C71" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="72" spans="2:3">
       <c r="B72">
         <v>71</v>
       </c>
-    </row>
-    <row r="73" spans="2:2">
+      <c r="C72" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="73" ht="15.6" spans="2:3">
       <c r="B73">
         <v>72</v>
       </c>
-    </row>
-    <row r="74" spans="2:2">
+      <c r="C73" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="74" ht="15.6" spans="2:3">
       <c r="B74">
         <v>73</v>
       </c>
-    </row>
-    <row r="75" spans="2:2">
+      <c r="C74" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="75" ht="15.6" spans="2:3">
       <c r="B75">
         <v>74</v>
       </c>
-    </row>
-    <row r="76" spans="2:2">
+      <c r="C75" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="76" ht="15.6" spans="2:3">
       <c r="B76">
         <v>75</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="77" ht="15.6" spans="2:3">
+      <c r="B77">
+        <v>76</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="78" ht="15.6" spans="2:3">
+      <c r="B78">
+        <v>77</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="79" ht="15.6" spans="2:3">
+      <c r="B79">
+        <v>78</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="80" spans="2:3">
+      <c r="B80">
+        <v>79</v>
+      </c>
+      <c r="C80" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="81" spans="2:3">
+      <c r="B81">
+        <v>80</v>
+      </c>
+      <c r="C81" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="82" spans="2:3">
+      <c r="B82">
+        <v>81</v>
+      </c>
+      <c r="C82" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="83" spans="2:3">
+      <c r="B83">
+        <v>82</v>
+      </c>
+      <c r="C83" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="84" spans="2:2">
+      <c r="B84">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="85" spans="2:2">
+      <c r="B85">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="86" spans="2:2">
+      <c r="B86">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="87" spans="2:2">
+      <c r="B87">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="88" spans="2:2">
+      <c r="B88">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="89" spans="2:2">
+      <c r="B89">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="90" spans="2:2">
+      <c r="B90">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="91" spans="2:2">
+      <c r="B91">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="92" spans="2:2">
+      <c r="B92">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="93" spans="2:2">
+      <c r="B93">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="94" spans="2:2">
+      <c r="B94">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="95" spans="2:2">
+      <c r="B95">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="96" spans="2:2">
+      <c r="B96">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="97" spans="2:2">
+      <c r="B97">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="98" spans="2:2">
+      <c r="B98">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="99" spans="2:2">
+      <c r="B99">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="100" spans="2:2">
+      <c r="B100">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="101" spans="2:2">
+      <c r="B101">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="102" spans="2:2">
+      <c r="B102">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="103" spans="2:2">
+      <c r="B103">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="104" spans="2:2">
+      <c r="B104">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="105" spans="2:2">
+      <c r="B105">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="106" spans="2:2">
+      <c r="B106">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="107" spans="2:2">
+      <c r="B107">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="108" spans="2:2">
+      <c r="B108">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="109" spans="2:2">
+      <c r="B109">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="110" spans="2:2">
+      <c r="B110">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="111" spans="2:2">
+      <c r="B111">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="112" spans="2:2">
+      <c r="B112">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="113" spans="2:2">
+      <c r="B113">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="114" spans="2:2">
+      <c r="B114">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="115" spans="2:2">
+      <c r="B115">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="116" spans="2:2">
+      <c r="B116">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="117" spans="2:2">
+      <c r="B117">
+        <v>116</v>
       </c>
     </row>
   </sheetData>
